--- a/result/eval_memory.xlsx
+++ b/result/eval_memory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C54B7D-C5BE-7940-82B0-CD57FD54AAA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CA907-C3D6-5144-A2D8-F767271D7846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59200" yWindow="460" windowWidth="25600" windowHeight="21140" activeTab="3" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19500" activeTab="1" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
   <si>
     <t>nComp</t>
   </si>
@@ -9989,7 +9989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
@@ -11082,7 +11082,7 @@
         <v>0.1218719482421875</v>
       </c>
       <c r="E39" s="40">
-        <f t="shared" ref="C39:K41" si="2" xml:space="preserve"> E4/1024/1024</f>
+        <f t="shared" ref="E39:K41" si="2" xml:space="preserve"> E4/1024/1024</f>
         <v>0.122802734375</v>
       </c>
       <c r="F39" s="41">
@@ -11247,7 +11247,7 @@
         <v>0.12381744384765625</v>
       </c>
       <c r="E42" s="40">
-        <f t="shared" ref="D42:K42" si="4" xml:space="preserve"> E7/1024/1024</f>
+        <f t="shared" ref="E42:K42" si="4" xml:space="preserve"> E7/1024/1024</f>
         <v>0.12566375732421875</v>
       </c>
       <c r="F42" s="41">
@@ -11300,7 +11300,7 @@
         <v>0.12641143798828125</v>
       </c>
       <c r="E43" s="40">
-        <f t="shared" ref="D43:K43" si="6" xml:space="preserve"> E8/1024/1024</f>
+        <f t="shared" ref="E43:K43" si="6" xml:space="preserve"> E8/1024/1024</f>
         <v>0.12947845458984375</v>
       </c>
       <c r="F43" s="41">
@@ -11353,7 +11353,7 @@
         <v>0.13289642333984375</v>
       </c>
       <c r="E44" s="40">
-        <f t="shared" ref="D44:K44" si="8" xml:space="preserve"> E9/1024/1024</f>
+        <f t="shared" ref="E44:K44" si="8" xml:space="preserve"> E9/1024/1024</f>
         <v>0.13901519775390625</v>
       </c>
       <c r="F44" s="41">
@@ -11406,7 +11406,7 @@
         <v>0.14586639404296875</v>
       </c>
       <c r="E45" s="40">
-        <f t="shared" ref="D45:K45" si="10" xml:space="preserve"> E10/1024/1024</f>
+        <f t="shared" ref="E45:K45" si="10" xml:space="preserve"> E10/1024/1024</f>
         <v>0.15808868408203125</v>
       </c>
       <c r="F45" s="41">
@@ -11459,7 +11459,7 @@
         <v>0.18477630615234375</v>
       </c>
       <c r="E46" s="40">
-        <f t="shared" ref="D46:K46" si="12" xml:space="preserve"> E11/1024/1024</f>
+        <f t="shared" ref="E46:K46" si="12" xml:space="preserve"> E11/1024/1024</f>
         <v>0.21530914306640625</v>
       </c>
       <c r="F46" s="41">
@@ -11512,7 +11512,7 @@
         <v>0.24962615966796875</v>
       </c>
       <c r="E47" s="40">
-        <f t="shared" ref="D47:K47" si="14" xml:space="preserve"> E12/1024/1024</f>
+        <f t="shared" ref="E47:K47" si="14" xml:space="preserve"> E12/1024/1024</f>
         <v>0.31067657470703125</v>
       </c>
       <c r="F47" s="41">
@@ -11565,7 +11565,7 @@
         <v>0.31447601318359375</v>
       </c>
       <c r="E48" s="40">
-        <f t="shared" ref="D48:K48" si="16" xml:space="preserve"> E13/1024/1024</f>
+        <f t="shared" ref="E48:K48" si="16" xml:space="preserve"> E13/1024/1024</f>
         <v>0.40604400634765625</v>
       </c>
       <c r="F48" s="41">
@@ -11618,7 +11618,7 @@
         <v>0.37932586669921875</v>
       </c>
       <c r="E49" s="40">
-        <f t="shared" ref="D49:K49" si="18" xml:space="preserve"> E14/1024/1024</f>
+        <f t="shared" ref="E49:K49" si="18" xml:space="preserve"> E14/1024/1024</f>
         <v>0.50141143798828125</v>
       </c>
       <c r="F49" s="41">
@@ -11671,7 +11671,7 @@
         <v>0.44417572021484375</v>
       </c>
       <c r="E50" s="40">
-        <f t="shared" ref="D50:K50" si="20" xml:space="preserve"> E15/1024/1024</f>
+        <f t="shared" ref="E50:K50" si="20" xml:space="preserve"> E15/1024/1024</f>
         <v>0.59677886962890625</v>
       </c>
       <c r="F50" s="41">
@@ -11713,7 +11713,7 @@
         <v>0.76842498779296875</v>
       </c>
       <c r="E51" s="40">
-        <f t="shared" ref="D51:K51" si="22" xml:space="preserve"> E16/1024/1024</f>
+        <f t="shared" ref="E51:K51" si="22" xml:space="preserve"> E16/1024/1024</f>
         <v>1.0736160278320312</v>
       </c>
       <c r="F51" s="41">
@@ -11755,7 +11755,7 @@
         <v>1.4169235229492188</v>
       </c>
       <c r="E52" s="40">
-        <f t="shared" ref="D52:K52" si="24" xml:space="preserve"> E17/1024/1024</f>
+        <f t="shared" ref="E52:K52" si="24" xml:space="preserve"> E17/1024/1024</f>
         <v>2.0272903442382812</v>
       </c>
       <c r="F52" s="41">
@@ -11797,7 +11797,7 @@
         <v>2.7139205932617188</v>
       </c>
       <c r="E53" s="40">
-        <f t="shared" ref="D53:K53" si="26" xml:space="preserve"> E18/1024/1024</f>
+        <f t="shared" ref="E53:K53" si="26" xml:space="preserve"> E18/1024/1024</f>
         <v>3.9346389770507812</v>
       </c>
       <c r="F53" s="41">
@@ -11839,7 +11839,7 @@
         <v>4.0109176635742188</v>
       </c>
       <c r="E54" s="40">
-        <f t="shared" ref="D54:K54" si="28" xml:space="preserve"> E19/1024/1024</f>
+        <f t="shared" ref="E54:K54" si="28" xml:space="preserve"> E19/1024/1024</f>
         <v>5.8419876098632812</v>
       </c>
       <c r="F54" s="41">
@@ -11881,7 +11881,7 @@
         <v>5.3079147338867188</v>
       </c>
       <c r="E55" s="40">
-        <f t="shared" ref="D55:K55" si="30" xml:space="preserve"> E20/1024/1024</f>
+        <f t="shared" ref="E55:K55" si="30" xml:space="preserve"> E20/1024/1024</f>
         <v>7.7493362426757812</v>
       </c>
       <c r="F55" s="41">
@@ -11923,7 +11923,7 @@
         <v>6.6049118041992188</v>
       </c>
       <c r="E56" s="40">
-        <f t="shared" ref="D56:K57" si="32" xml:space="preserve"> E21/1024/1024</f>
+        <f t="shared" ref="E56:K57" si="32" xml:space="preserve"> E21/1024/1024</f>
         <v>9.6566848754882812</v>
       </c>
       <c r="F56" s="41">
@@ -12005,9 +12005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F1A3-C3C0-3C43-978B-5219F965718F}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P3" sqref="P3:P21"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13669,43 +13669,43 @@
         <v>0.12870025634765625</v>
       </c>
       <c r="L38" s="37">
-        <f>L3/1024/1024</f>
+        <f t="shared" ref="L38:U38" si="1">L3/1024/1024</f>
         <v>0.12207794189453125</v>
       </c>
       <c r="M38" s="38">
-        <f>M3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.47168731689453125</v>
       </c>
       <c r="N38" s="39">
-        <f>N3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.135894775390625</v>
       </c>
       <c r="O38" s="40">
-        <f>O3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1320953369140625</v>
       </c>
       <c r="P38" s="41">
-        <f>P3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.13138580322265625</v>
       </c>
       <c r="Q38" s="37">
-        <f>Q3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1210479736328125</v>
       </c>
       <c r="R38" s="38">
-        <f>R3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1239013671875</v>
       </c>
       <c r="S38" s="39">
-        <f>S3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1283416748046875</v>
       </c>
       <c r="T38" s="40">
-        <f>T3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1320953369140625</v>
       </c>
       <c r="U38" s="41">
-        <f>U3/1024/1024</f>
+        <f t="shared" si="1"/>
         <v>0.1287078857421875</v>
       </c>
       <c r="V38" s="25"/>
@@ -13715,83 +13715,83 @@
         <v>15</v>
       </c>
       <c r="B39" s="37">
-        <f t="shared" ref="B39:B57" si="1">B4/1024/1024</f>
+        <f t="shared" ref="B39:B57" si="2">B4/1024/1024</f>
         <v>0.12401580810546875</v>
       </c>
       <c r="C39" s="38">
-        <f t="shared" ref="B39:P55" si="2">C4/1024/1024</f>
+        <f t="shared" ref="C39:P41" si="3">C4/1024/1024</f>
         <v>11.370346069335938</v>
       </c>
       <c r="D39" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15969085693359375</v>
       </c>
       <c r="E39" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1395263671875</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13881683349609375</v>
       </c>
       <c r="G39" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.121612548828125</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1258392333984375</v>
       </c>
       <c r="I39" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13405609130859375</v>
       </c>
       <c r="J39" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1395263671875</v>
       </c>
       <c r="K39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13304901123046875</v>
       </c>
       <c r="L39" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1240234375</v>
       </c>
       <c r="M39" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.370353698730469</v>
       </c>
       <c r="N39" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.159698486328125</v>
       </c>
       <c r="O39" s="40">
-        <f t="shared" si="2"/>
-        <v>0.13953399658203125</v>
-      </c>
-      <c r="P39" s="41">
-        <f t="shared" si="2"/>
-        <v>0.138824462890625</v>
-      </c>
-      <c r="Q39" s="37">
-        <f t="shared" ref="Q39:U57" si="3">Q4/1024/1024</f>
-        <v>0.12162017822265625</v>
-      </c>
-      <c r="R39" s="38">
-        <f t="shared" si="3"/>
-        <v>0.12584686279296875</v>
-      </c>
-      <c r="S39" s="39">
-        <f t="shared" si="3"/>
-        <v>0.134063720703125</v>
-      </c>
-      <c r="T39" s="40">
         <f t="shared" si="3"/>
         <v>0.13953399658203125</v>
       </c>
+      <c r="P39" s="41">
+        <f t="shared" si="3"/>
+        <v>0.138824462890625</v>
+      </c>
+      <c r="Q39" s="37">
+        <f t="shared" ref="Q39:U57" si="4">Q4/1024/1024</f>
+        <v>0.12162017822265625</v>
+      </c>
+      <c r="R39" s="38">
+        <f t="shared" si="4"/>
+        <v>0.12584686279296875</v>
+      </c>
+      <c r="S39" s="39">
+        <f t="shared" si="4"/>
+        <v>0.134063720703125</v>
+      </c>
+      <c r="T39" s="40">
+        <f t="shared" si="4"/>
+        <v>0.13953399658203125</v>
+      </c>
       <c r="U39" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.133056640625</v>
       </c>
       <c r="V39" s="25"/>
@@ -13801,83 +13801,83 @@
         <v>20</v>
       </c>
       <c r="B40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12653350830078125</v>
       </c>
       <c r="C40" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360.12057495117188</v>
       </c>
       <c r="D40" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20180511474609375</v>
       </c>
       <c r="E40" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14810943603515625</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14739990234375</v>
       </c>
       <c r="G40" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12218475341796875</v>
       </c>
       <c r="H40" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12778472900390625</v>
       </c>
       <c r="I40" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14092254638671875</v>
       </c>
       <c r="J40" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14810943603515625</v>
       </c>
       <c r="K40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13739776611328125</v>
       </c>
       <c r="L40" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1265411376953125</v>
       </c>
       <c r="M40" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360.12058258056641</v>
       </c>
       <c r="N40" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.201812744140625</v>
       </c>
       <c r="O40" s="40">
-        <f t="shared" si="2"/>
-        <v>0.1481170654296875</v>
-      </c>
-      <c r="P40" s="41">
-        <f t="shared" si="2"/>
-        <v>0.14740753173828125</v>
-      </c>
-      <c r="Q40" s="37">
-        <f t="shared" si="3"/>
-        <v>0.1221923828125</v>
-      </c>
-      <c r="R40" s="38">
-        <f t="shared" si="3"/>
-        <v>0.1277923583984375</v>
-      </c>
-      <c r="S40" s="39">
-        <f t="shared" si="3"/>
-        <v>0.14093017578125</v>
-      </c>
-      <c r="T40" s="40">
         <f t="shared" si="3"/>
         <v>0.1481170654296875</v>
       </c>
+      <c r="P40" s="41">
+        <f t="shared" si="3"/>
+        <v>0.14740753173828125</v>
+      </c>
+      <c r="Q40" s="37">
+        <f t="shared" si="4"/>
+        <v>0.1221923828125</v>
+      </c>
+      <c r="R40" s="38">
+        <f t="shared" si="4"/>
+        <v>0.1277923583984375</v>
+      </c>
+      <c r="S40" s="39">
+        <f t="shared" si="4"/>
+        <v>0.14093017578125</v>
+      </c>
+      <c r="T40" s="40">
+        <f t="shared" si="4"/>
+        <v>0.1481170654296875</v>
+      </c>
       <c r="U40" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1374053955078125</v>
       </c>
       <c r="V40" s="25"/>
@@ -13887,83 +13887,83 @@
         <v>25</v>
       </c>
       <c r="B41" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1296234130859375</v>
       </c>
       <c r="C41" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11520.120803833008</v>
       </c>
       <c r="D41" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26795196533203125</v>
       </c>
       <c r="E41" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1578369140625</v>
       </c>
       <c r="F41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15712738037109375</v>
       </c>
       <c r="G41" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1227569580078125</v>
       </c>
       <c r="H41" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.129730224609375</v>
       </c>
       <c r="I41" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14893341064453125</v>
       </c>
       <c r="J41" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1578369140625</v>
       </c>
       <c r="K41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14174652099609375</v>
       </c>
       <c r="L41" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12963104248046875</v>
       </c>
       <c r="M41" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11520.120811462402</v>
       </c>
       <c r="N41" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2679595947265625</v>
       </c>
       <c r="O41" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15784454345703125</v>
-      </c>
-      <c r="P41" s="41">
-        <f t="shared" si="2"/>
-        <v>0.157135009765625</v>
-      </c>
-      <c r="Q41" s="37">
-        <f t="shared" si="3"/>
-        <v>0.12276458740234375</v>
-      </c>
-      <c r="R41" s="38">
-        <f t="shared" si="3"/>
-        <v>0.12973785400390625</v>
-      </c>
-      <c r="S41" s="39">
-        <f t="shared" si="3"/>
-        <v>0.1489410400390625</v>
-      </c>
-      <c r="T41" s="40">
         <f t="shared" si="3"/>
         <v>0.15784454345703125</v>
       </c>
+      <c r="P41" s="41">
+        <f t="shared" si="3"/>
+        <v>0.157135009765625</v>
+      </c>
+      <c r="Q41" s="37">
+        <f t="shared" si="4"/>
+        <v>0.12276458740234375</v>
+      </c>
+      <c r="R41" s="38">
+        <f t="shared" si="4"/>
+        <v>0.12973785400390625</v>
+      </c>
+      <c r="S41" s="39">
+        <f t="shared" si="4"/>
+        <v>0.1489410400390625</v>
+      </c>
+      <c r="T41" s="40">
+        <f t="shared" si="4"/>
+        <v>0.15784454345703125</v>
+      </c>
       <c r="U41" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.141754150390625</v>
       </c>
       <c r="V41" s="25"/>
@@ -13973,80 +13973,80 @@
         <v>30</v>
       </c>
       <c r="B42" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1332855224609375</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="39">
-        <f t="shared" ref="D42:E42" si="4">D7/1024/1024</f>
+        <f t="shared" ref="D42:E42" si="5">D7/1024/1024</f>
         <v>0.36385345458984375</v>
       </c>
       <c r="E42" s="40">
-        <f t="shared" si="4"/>
-        <v>0.16870880126953125</v>
-      </c>
-      <c r="F42" s="41">
-        <f t="shared" ref="D42:P42" si="5">F7/1024/1024</f>
-        <v>0.167999267578125</v>
-      </c>
-      <c r="G42" s="37">
-        <f t="shared" si="5"/>
-        <v>0.12332916259765625</v>
-      </c>
-      <c r="H42" s="38">
-        <f t="shared" si="5"/>
-        <v>0.13167572021484375</v>
-      </c>
-      <c r="I42" s="39">
-        <f t="shared" si="5"/>
-        <v>0.15808868408203125</v>
-      </c>
-      <c r="J42" s="40">
         <f t="shared" si="5"/>
         <v>0.16870880126953125</v>
       </c>
+      <c r="F42" s="41">
+        <f t="shared" ref="F42:P42" si="6">F7/1024/1024</f>
+        <v>0.167999267578125</v>
+      </c>
+      <c r="G42" s="37">
+        <f t="shared" si="6"/>
+        <v>0.12332916259765625</v>
+      </c>
+      <c r="H42" s="38">
+        <f t="shared" si="6"/>
+        <v>0.13167572021484375</v>
+      </c>
+      <c r="I42" s="39">
+        <f t="shared" si="6"/>
+        <v>0.15808868408203125</v>
+      </c>
+      <c r="J42" s="40">
+        <f t="shared" si="6"/>
+        <v>0.16870880126953125</v>
+      </c>
       <c r="K42" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14609527587890625</v>
       </c>
       <c r="L42" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13329315185546875</v>
       </c>
       <c r="M42" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>368640.12104034424</v>
       </c>
       <c r="N42" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.363861083984375</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1687164306640625</v>
       </c>
       <c r="P42" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16800689697265625</v>
       </c>
       <c r="Q42" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1233367919921875</v>
       </c>
       <c r="R42" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.131683349609375</v>
       </c>
       <c r="S42" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1580963134765625</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1687164306640625</v>
       </c>
       <c r="U42" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1461029052734375</v>
       </c>
       <c r="V42" s="25"/>
@@ -14056,77 +14056,77 @@
         <v>50</v>
       </c>
       <c r="B43" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.153656005859375</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="39">
-        <f t="shared" ref="D43:E43" si="6">D8/1024/1024</f>
+        <f t="shared" ref="D43:E43" si="7">D8/1024/1024</f>
         <v>1.1594467163085938</v>
       </c>
       <c r="E43" s="40">
-        <f t="shared" si="6"/>
-        <v>0.22364044189453125</v>
-      </c>
-      <c r="F43" s="41">
-        <f t="shared" ref="D43:L43" si="7">F8/1024/1024</f>
-        <v>0.222930908203125</v>
-      </c>
-      <c r="G43" s="37">
-        <f t="shared" si="7"/>
-        <v>0.12561798095703125</v>
-      </c>
-      <c r="H43" s="38">
-        <f t="shared" si="7"/>
-        <v>0.13945770263671875</v>
-      </c>
-      <c r="I43" s="39">
-        <f t="shared" si="7"/>
-        <v>0.20615386962890625</v>
-      </c>
-      <c r="J43" s="40">
         <f t="shared" si="7"/>
         <v>0.22364044189453125</v>
       </c>
+      <c r="F43" s="41">
+        <f t="shared" ref="F43:L43" si="8">F8/1024/1024</f>
+        <v>0.222930908203125</v>
+      </c>
+      <c r="G43" s="37">
+        <f t="shared" si="8"/>
+        <v>0.12561798095703125</v>
+      </c>
+      <c r="H43" s="38">
+        <f t="shared" si="8"/>
+        <v>0.13945770263671875</v>
+      </c>
+      <c r="I43" s="39">
+        <f t="shared" si="8"/>
+        <v>0.20615386962890625</v>
+      </c>
+      <c r="J43" s="40">
+        <f t="shared" si="8"/>
+        <v>0.22364044189453125</v>
+      </c>
       <c r="K43" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16349029541015625</v>
       </c>
       <c r="L43" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15366363525390625</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="39">
-        <f t="shared" ref="N43:P50" si="8">N8/1024/1024</f>
+        <f t="shared" ref="N43:P50" si="9">N8/1024/1024</f>
         <v>1.159454345703125</v>
       </c>
       <c r="O43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2236480712890625</v>
       </c>
       <c r="P43" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22293853759765625</v>
       </c>
       <c r="Q43" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1256256103515625</v>
       </c>
       <c r="R43" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13946533203125</v>
       </c>
       <c r="S43" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2061614990234375</v>
       </c>
       <c r="T43" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2236480712890625</v>
       </c>
       <c r="U43" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1634979248046875</v>
       </c>
       <c r="V43" s="25"/>
@@ -14136,77 +14136,77 @@
         <v>100</v>
       </c>
       <c r="B44" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24463653564453125</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39">
-        <f t="shared" ref="D44:E44" si="9">D9/1024/1024</f>
+        <f t="shared" ref="D44:E44" si="10">D9/1024/1024</f>
         <v>8.0350570678710938</v>
       </c>
       <c r="E44" s="40">
-        <f t="shared" si="9"/>
-        <v>0.44107818603515625</v>
-      </c>
-      <c r="F44" s="41">
-        <f t="shared" ref="D44:L44" si="10">F9/1024/1024</f>
-        <v>0.44036865234375</v>
-      </c>
-      <c r="G44" s="37">
-        <f t="shared" si="10"/>
-        <v>0.13134002685546875</v>
-      </c>
-      <c r="H44" s="38">
-        <f t="shared" si="10"/>
-        <v>0.15891265869140625</v>
-      </c>
-      <c r="I44" s="39">
-        <f t="shared" si="10"/>
-        <v>0.40642547607421875</v>
-      </c>
-      <c r="J44" s="40">
         <f t="shared" si="10"/>
         <v>0.44107818603515625</v>
       </c>
+      <c r="F44" s="41">
+        <f t="shared" ref="F44:L44" si="11">F9/1024/1024</f>
+        <v>0.44036865234375</v>
+      </c>
+      <c r="G44" s="37">
+        <f t="shared" si="11"/>
+        <v>0.13134002685546875</v>
+      </c>
+      <c r="H44" s="38">
+        <f t="shared" si="11"/>
+        <v>0.15891265869140625</v>
+      </c>
+      <c r="I44" s="39">
+        <f t="shared" si="11"/>
+        <v>0.40642547607421875</v>
+      </c>
+      <c r="J44" s="40">
+        <f t="shared" si="11"/>
+        <v>0.44107818603515625</v>
+      </c>
       <c r="K44" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20697784423828125</v>
       </c>
       <c r="L44" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2446441650390625</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.035064697265625</v>
       </c>
       <c r="O44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4410858154296875</v>
       </c>
       <c r="P44" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44037628173828125</v>
       </c>
       <c r="Q44" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13134765625</v>
       </c>
       <c r="R44" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1589202880859375</v>
       </c>
       <c r="S44" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40643310546875</v>
       </c>
       <c r="T44" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4410858154296875</v>
       </c>
       <c r="U44" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2069854736328125</v>
       </c>
       <c r="V44" s="25"/>
@@ -14216,77 +14216,77 @@
         <v>200</v>
       </c>
       <c r="B45" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59825897216796875</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="39">
-        <f t="shared" ref="D45:E45" si="11">D10/1024/1024</f>
+        <f t="shared" ref="D45:E45" si="12">D10/1024/1024</f>
         <v>62.183921813964844</v>
       </c>
       <c r="E45" s="40">
-        <f t="shared" si="11"/>
-        <v>1.2192764282226562</v>
-      </c>
-      <c r="F45" s="41">
-        <f t="shared" ref="D45:L45" si="12">F10/1024/1024</f>
-        <v>1.21856689453125</v>
-      </c>
-      <c r="G45" s="37">
-        <f t="shared" si="12"/>
-        <v>0.14278411865234375</v>
-      </c>
-      <c r="H45" s="38">
-        <f t="shared" si="12"/>
-        <v>0.19782257080078125</v>
-      </c>
-      <c r="I45" s="39">
-        <f t="shared" si="12"/>
-        <v>1.1502914428710938</v>
-      </c>
-      <c r="J45" s="40">
         <f t="shared" si="12"/>
         <v>1.2192764282226562</v>
       </c>
+      <c r="F45" s="41">
+        <f t="shared" ref="F45:L45" si="13">F10/1024/1024</f>
+        <v>1.21856689453125</v>
+      </c>
+      <c r="G45" s="37">
+        <f t="shared" si="13"/>
+        <v>0.14278411865234375</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="13"/>
+        <v>0.19782257080078125</v>
+      </c>
+      <c r="I45" s="39">
+        <f t="shared" si="13"/>
+        <v>1.1502914428710938</v>
+      </c>
+      <c r="J45" s="40">
+        <f t="shared" si="13"/>
+        <v>1.2192764282226562</v>
+      </c>
       <c r="K45" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.29395294189453125</v>
       </c>
       <c r="L45" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5982666015625</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.183929443359375</v>
       </c>
       <c r="O45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2192840576171875</v>
       </c>
       <c r="P45" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2185745239257812</v>
       </c>
       <c r="Q45" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.142791748046875</v>
       </c>
       <c r="R45" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1978302001953125</v>
       </c>
       <c r="S45" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.150299072265625</v>
       </c>
       <c r="T45" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2192840576171875</v>
       </c>
       <c r="U45" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2939605712890625</v>
       </c>
       <c r="V45" s="25"/>
@@ -14296,77 +14296,77 @@
         <v>500</v>
       </c>
       <c r="B46" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0324172973632812</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="39">
-        <f t="shared" ref="D46:E46" si="13">D11/1024/1024</f>
+        <f t="shared" ref="D46:E46" si="14">D11/1024/1024</f>
         <v>959.79897308349609</v>
       </c>
       <c r="E46" s="40">
-        <f t="shared" si="13"/>
-        <v>6.3004531860351562</v>
-      </c>
-      <c r="F46" s="41">
-        <f t="shared" ref="D46:L46" si="14">F11/1024/1024</f>
-        <v>6.29974365234375</v>
-      </c>
-      <c r="G46" s="37">
-        <f t="shared" si="14"/>
-        <v>0.17711639404296875</v>
-      </c>
-      <c r="H46" s="38">
-        <f t="shared" si="14"/>
-        <v>0.31455230712890625</v>
-      </c>
-      <c r="I46" s="39">
-        <f t="shared" si="14"/>
-        <v>6.1284713745117188</v>
-      </c>
-      <c r="J46" s="40">
         <f t="shared" si="14"/>
         <v>6.3004531860351562</v>
       </c>
+      <c r="F46" s="41">
+        <f t="shared" ref="F46:L46" si="15">F11/1024/1024</f>
+        <v>6.29974365234375</v>
+      </c>
+      <c r="G46" s="37">
+        <f t="shared" si="15"/>
+        <v>0.17711639404296875</v>
+      </c>
+      <c r="H46" s="38">
+        <f t="shared" si="15"/>
+        <v>0.31455230712890625</v>
+      </c>
+      <c r="I46" s="39">
+        <f t="shared" si="15"/>
+        <v>6.1284713745117188</v>
+      </c>
+      <c r="J46" s="40">
+        <f t="shared" si="15"/>
+        <v>6.3004531860351562</v>
+      </c>
       <c r="K46" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.55487823486328125</v>
       </c>
       <c r="L46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0324249267578125</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>959.79898071289062</v>
       </c>
       <c r="O46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3004608154296875</v>
       </c>
       <c r="P46" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2997512817382812</v>
       </c>
       <c r="Q46" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1771240234375</v>
       </c>
       <c r="R46" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3145599365234375</v>
       </c>
       <c r="S46" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.12847900390625</v>
       </c>
       <c r="T46" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3004608154296875</v>
       </c>
       <c r="U46" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5548858642578125</v>
       </c>
       <c r="V46" s="25"/>
@@ -14376,77 +14376,77 @@
         <v>1000</v>
       </c>
       <c r="B47" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.666984558105469</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39">
-        <f t="shared" ref="D47:E47" si="15">D12/1024/1024</f>
+        <f t="shared" ref="D47:E47" si="16">D12/1024/1024</f>
         <v>7652.9676132202148</v>
       </c>
       <c r="E47" s="40">
-        <f t="shared" si="15"/>
-        <v>23.924354553222656</v>
-      </c>
-      <c r="F47" s="41">
-        <f t="shared" ref="D47:L47" si="16">F12/1024/1024</f>
-        <v>23.92364501953125</v>
-      </c>
-      <c r="G47" s="37">
-        <f t="shared" si="16"/>
-        <v>0.23433685302734375</v>
-      </c>
-      <c r="H47" s="38">
-        <f t="shared" si="16"/>
-        <v>0.50910186767578125</v>
-      </c>
-      <c r="I47" s="39">
-        <f t="shared" si="16"/>
-        <v>23.580711364746094</v>
-      </c>
-      <c r="J47" s="40">
         <f t="shared" si="16"/>
         <v>23.924354553222656</v>
       </c>
+      <c r="F47" s="41">
+        <f t="shared" ref="F47:L47" si="17">F12/1024/1024</f>
+        <v>23.92364501953125</v>
+      </c>
+      <c r="G47" s="37">
+        <f t="shared" si="17"/>
+        <v>0.23433685302734375</v>
+      </c>
+      <c r="H47" s="38">
+        <f t="shared" si="17"/>
+        <v>0.50910186767578125</v>
+      </c>
+      <c r="I47" s="39">
+        <f t="shared" si="17"/>
+        <v>23.580711364746094</v>
+      </c>
+      <c r="J47" s="40">
+        <f t="shared" si="17"/>
+        <v>23.924354553222656</v>
+      </c>
       <c r="K47" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98975372314453125</v>
       </c>
       <c r="L47" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.6669921875</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7652.9676208496094</v>
       </c>
       <c r="O47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.924362182617188</v>
       </c>
       <c r="P47" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.923652648925781</v>
       </c>
       <c r="Q47" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.234344482421875</v>
       </c>
       <c r="R47" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5091094970703125</v>
       </c>
       <c r="S47" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.580718994140625</v>
       </c>
       <c r="T47" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.924362182617188</v>
       </c>
       <c r="U47" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9897613525390625</v>
       </c>
       <c r="V47" s="25"/>
@@ -14456,77 +14456,77 @@
         <v>1500</v>
       </c>
       <c r="B48" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.023597717285156</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="39">
-        <f t="shared" ref="D48:E48" si="17">D13/1024/1024</f>
+        <f t="shared" ref="D48:E48" si="18">D13/1024/1024</f>
         <v>25801.672142028809</v>
       </c>
       <c r="E48" s="40">
-        <f t="shared" si="17"/>
-        <v>52.992347717285156</v>
-      </c>
-      <c r="F48" s="41">
-        <f t="shared" ref="D48:L48" si="18">F13/1024/1024</f>
-        <v>52.99163818359375</v>
-      </c>
-      <c r="G48" s="37">
-        <f t="shared" si="18"/>
-        <v>0.29155731201171875</v>
-      </c>
-      <c r="H48" s="38">
-        <f t="shared" si="18"/>
-        <v>0.70365142822265625</v>
-      </c>
-      <c r="I48" s="39">
-        <f t="shared" si="18"/>
-        <v>52.477043151855469</v>
-      </c>
-      <c r="J48" s="40">
         <f t="shared" si="18"/>
         <v>52.992347717285156</v>
       </c>
+      <c r="F48" s="41">
+        <f t="shared" ref="F48:L48" si="19">F13/1024/1024</f>
+        <v>52.99163818359375</v>
+      </c>
+      <c r="G48" s="37">
+        <f t="shared" si="19"/>
+        <v>0.29155731201171875</v>
+      </c>
+      <c r="H48" s="38">
+        <f t="shared" si="19"/>
+        <v>0.70365142822265625</v>
+      </c>
+      <c r="I48" s="39">
+        <f t="shared" si="19"/>
+        <v>52.477043151855469</v>
+      </c>
+      <c r="J48" s="40">
+        <f t="shared" si="19"/>
+        <v>52.992347717285156</v>
+      </c>
       <c r="K48" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4246292114257812</v>
       </c>
       <c r="L48" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26.023605346679688</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25801.672149658203</v>
       </c>
       <c r="O48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.992355346679688</v>
       </c>
       <c r="P48" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.991645812988281</v>
       </c>
       <c r="Q48" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29156494140625</v>
       </c>
       <c r="R48" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7036590576171875</v>
       </c>
       <c r="S48" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.47705078125</v>
       </c>
       <c r="T48" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.992355346679688</v>
       </c>
       <c r="U48" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4246368408203125</v>
       </c>
       <c r="V48" s="25"/>
@@ -14536,77 +14536,77 @@
         <v>2000</v>
       </c>
       <c r="B49" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.102256774902344</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39">
-        <f t="shared" ref="D49:E49" si="19">D14/1024/1024</f>
+        <f t="shared" ref="D49:E49" si="20">D14/1024/1024</f>
         <v>61127.958457946777</v>
       </c>
       <c r="E49" s="40">
-        <f t="shared" si="19"/>
-        <v>93.504432678222656</v>
-      </c>
-      <c r="F49" s="41">
-        <f t="shared" ref="D49:L49" si="20">F14/1024/1024</f>
-        <v>93.50372314453125</v>
-      </c>
-      <c r="G49" s="37">
-        <f t="shared" si="20"/>
-        <v>0.34877777099609375</v>
-      </c>
-      <c r="H49" s="38">
-        <f t="shared" si="20"/>
-        <v>0.89820098876953125</v>
-      </c>
-      <c r="I49" s="39">
-        <f t="shared" si="20"/>
-        <v>92.817466735839844</v>
-      </c>
-      <c r="J49" s="40">
         <f t="shared" si="20"/>
         <v>93.504432678222656</v>
       </c>
+      <c r="F49" s="41">
+        <f t="shared" ref="F49:L49" si="21">F14/1024/1024</f>
+        <v>93.50372314453125</v>
+      </c>
+      <c r="G49" s="37">
+        <f t="shared" si="21"/>
+        <v>0.34877777099609375</v>
+      </c>
+      <c r="H49" s="38">
+        <f t="shared" si="21"/>
+        <v>0.89820098876953125</v>
+      </c>
+      <c r="I49" s="39">
+        <f t="shared" si="21"/>
+        <v>92.817466735839844</v>
+      </c>
+      <c r="J49" s="40">
+        <f t="shared" si="21"/>
+        <v>93.504432678222656</v>
+      </c>
       <c r="K49" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8595046997070312</v>
       </c>
       <c r="L49" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.102264404296875</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61127.958465576172</v>
       </c>
       <c r="O49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>93.504440307617188</v>
       </c>
       <c r="P49" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>93.503730773925781</v>
       </c>
       <c r="Q49" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.348785400390625</v>
       </c>
       <c r="R49" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8982086181640625</v>
       </c>
       <c r="S49" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.817474365234375</v>
       </c>
       <c r="T49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.504440307617188</v>
       </c>
       <c r="U49" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8595123291015625</v>
       </c>
       <c r="V49" s="25"/>
@@ -14616,77 +14616,77 @@
         <v>2500</v>
       </c>
       <c r="B50" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.902961730957031</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="39">
-        <f t="shared" ref="D50:E50" si="21">D15/1024/1024</f>
+        <f t="shared" ref="D50:E50" si="22">D15/1024/1024</f>
         <v>119353.87245941162</v>
       </c>
       <c r="E50" s="40">
-        <f t="shared" si="21"/>
-        <v>145.46060943603516</v>
-      </c>
-      <c r="F50" s="41">
-        <f t="shared" ref="E50:L50" si="22">F15/1024/1024</f>
-        <v>145.45989990234375</v>
-      </c>
-      <c r="G50" s="37">
-        <f t="shared" si="22"/>
-        <v>0.40599822998046875</v>
-      </c>
-      <c r="H50" s="38">
-        <f t="shared" si="22"/>
-        <v>1.0927505493164062</v>
-      </c>
-      <c r="I50" s="39">
-        <f t="shared" si="22"/>
-        <v>144.60198211669922</v>
-      </c>
-      <c r="J50" s="40">
         <f t="shared" si="22"/>
         <v>145.46060943603516</v>
       </c>
+      <c r="F50" s="41">
+        <f t="shared" ref="F50:L50" si="23">F15/1024/1024</f>
+        <v>145.45989990234375</v>
+      </c>
+      <c r="G50" s="37">
+        <f t="shared" si="23"/>
+        <v>0.40599822998046875</v>
+      </c>
+      <c r="H50" s="38">
+        <f t="shared" si="23"/>
+        <v>1.0927505493164062</v>
+      </c>
+      <c r="I50" s="39">
+        <f t="shared" si="23"/>
+        <v>144.60198211669922</v>
+      </c>
+      <c r="J50" s="40">
+        <f t="shared" si="23"/>
+        <v>145.46060943603516</v>
+      </c>
       <c r="K50" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2943801879882812</v>
       </c>
       <c r="L50" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>71.902969360351562</v>
       </c>
       <c r="M50" s="38"/>
       <c r="N50" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>119353.87246704102</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.46061706542969</v>
       </c>
       <c r="P50" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.45990753173828</v>
       </c>
       <c r="Q50" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.406005859375</v>
       </c>
       <c r="R50" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0927581787109375</v>
       </c>
       <c r="S50" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144.60198974609375</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>145.46061706542969</v>
       </c>
       <c r="U50" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2943878173828125</v>
       </c>
     </row>
@@ -14695,71 +14695,71 @@
         <v>5000</v>
       </c>
       <c r="B51" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>286.73717498779297</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39"/>
       <c r="E51" s="40">
-        <f t="shared" ref="E51" si="23">E16/1024/1024</f>
+        <f t="shared" ref="E51" si="24">E16/1024/1024</f>
         <v>576.90287017822266</v>
       </c>
       <c r="F51" s="41">
-        <f t="shared" ref="E51:L51" si="24">F16/1024/1024</f>
+        <f t="shared" ref="F51:L51" si="25">F16/1024/1024</f>
         <v>576.90216064453125</v>
       </c>
       <c r="G51" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.69210052490234375</v>
       </c>
       <c r="H51" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0654983520507812</v>
       </c>
       <c r="I51" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>575.18593597412109</v>
       </c>
       <c r="J51" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>576.90287017822266</v>
       </c>
       <c r="K51" s="41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4687576293945312</v>
       </c>
       <c r="L51" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>286.7371826171875</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="39"/>
       <c r="O51" s="40">
-        <f t="shared" ref="O51:P56" si="25">O16/1024/1024</f>
+        <f t="shared" ref="O51:P56" si="26">O16/1024/1024</f>
         <v>576.90287780761719</v>
       </c>
       <c r="P51" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>576.90216827392578</v>
       </c>
       <c r="Q51" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.692108154296875</v>
       </c>
       <c r="R51" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0655059814453125</v>
       </c>
       <c r="S51" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>575.18594360351562</v>
       </c>
       <c r="T51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>576.90287780761719</v>
       </c>
       <c r="U51" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4687652587890625</v>
       </c>
     </row>
@@ -14768,71 +14768,71 @@
         <v>10000</v>
       </c>
       <c r="B52" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1145.5590438842773</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
       <c r="E52" s="40">
-        <f t="shared" ref="E52" si="26">E17/1024/1024</f>
+        <f t="shared" ref="E52" si="27">E17/1024/1024</f>
         <v>2298.0942764282227</v>
       </c>
       <c r="F52" s="41">
-        <f t="shared" ref="E52:L52" si="27">F17/1024/1024</f>
+        <f t="shared" ref="F52:L52" si="28">F17/1024/1024</f>
         <v>2298.0935668945312</v>
       </c>
       <c r="G52" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.2643051147460938</v>
       </c>
       <c r="H52" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.0109939575195312</v>
       </c>
       <c r="I52" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2294.6607284545898</v>
       </c>
       <c r="J52" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2298.0942764282227</v>
       </c>
       <c r="K52" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.8175125122070312</v>
       </c>
       <c r="L52" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1145.5590515136719</v>
       </c>
       <c r="M52" s="38"/>
       <c r="N52" s="39"/>
       <c r="O52" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2298.0942840576172</v>
       </c>
       <c r="P52" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2298.0935745239258</v>
       </c>
       <c r="Q52" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.264312744140625</v>
       </c>
       <c r="R52" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0110015869140625</v>
       </c>
       <c r="S52" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2294.6607360839844</v>
       </c>
       <c r="T52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2298.0942840576172</v>
       </c>
       <c r="U52" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8175201416015625</v>
       </c>
     </row>
@@ -14841,71 +14841,71 @@
         <v>20000</v>
       </c>
       <c r="B53" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4579.8165512084961</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="39"/>
       <c r="E53" s="40">
-        <f t="shared" ref="E53" si="28">E18/1024/1024</f>
+        <f t="shared" ref="E53" si="29">E18/1024/1024</f>
         <v>9173.7046279907227</v>
       </c>
       <c r="F53" s="41">
-        <f t="shared" ref="E53:L54" si="29">F18/1024/1024</f>
+        <f t="shared" ref="F53:L54" si="30">F18/1024/1024</f>
         <v>9173.7039184570312</v>
       </c>
       <c r="G53" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4087142944335938</v>
       </c>
       <c r="H53" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.9019851684570312</v>
       </c>
       <c r="I53" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9166.8378524780273</v>
       </c>
       <c r="J53" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9173.7046279907227</v>
       </c>
       <c r="K53" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.515022277832031</v>
       </c>
       <c r="L53" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4579.8165588378906</v>
       </c>
       <c r="M53" s="38"/>
       <c r="N53" s="39"/>
       <c r="O53" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9173.7046356201172</v>
       </c>
       <c r="P53" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9173.7039260864258</v>
       </c>
       <c r="Q53" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.408721923828125</v>
       </c>
       <c r="R53" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9019927978515625</v>
       </c>
       <c r="S53" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9166.8378601074219</v>
       </c>
       <c r="T53" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9173.7046356201172</v>
       </c>
       <c r="U53" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.515029907226562</v>
       </c>
     </row>
@@ -14914,71 +14914,71 @@
         <v>30000</v>
       </c>
       <c r="B54" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10302.892417907715</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
       <c r="E54" s="40">
-        <f t="shared" ref="E54" si="30">E19/1024/1024</f>
+        <f t="shared" ref="E54" si="31">E19/1024/1024</f>
         <v>20626.951698303223</v>
       </c>
       <c r="F54" s="41">
-        <f t="shared" ref="E54:H54" si="31">F19/1024/1024</f>
+        <f t="shared" ref="F54:H54" si="32">F19/1024/1024</f>
         <v>20626.950988769531</v>
       </c>
       <c r="G54" s="37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.5531234741210938</v>
       </c>
       <c r="H54" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11.792976379394531</v>
       </c>
       <c r="I54" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20616.651695251465</v>
       </c>
       <c r="J54" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20626.951698303223</v>
       </c>
       <c r="K54" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>26.212532043457031</v>
       </c>
       <c r="L54" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10302.892425537109</v>
       </c>
       <c r="M54" s="38"/>
       <c r="N54" s="39"/>
       <c r="O54" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20626.951705932617</v>
       </c>
       <c r="P54" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20626.950996398926</v>
       </c>
       <c r="Q54" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.553131103515625</v>
       </c>
       <c r="R54" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.792984008789062</v>
       </c>
       <c r="S54" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20616.651702880859</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20626.951705932617</v>
       </c>
       <c r="U54" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.212539672851562</v>
       </c>
     </row>
@@ -14987,62 +14987,62 @@
         <v>40000</v>
       </c>
       <c r="B55" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18314.786643981934</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
       <c r="E55" s="40">
-        <f t="shared" ref="E55" si="32">E20/1024/1024</f>
+        <f t="shared" ref="E55" si="33">E20/1024/1024</f>
         <v>36657.835487365723</v>
       </c>
       <c r="F55" s="41">
-        <f t="shared" ref="E55:H57" si="33">F20/1024/1024</f>
+        <f t="shared" ref="F55:H56" si="34">F20/1024/1024</f>
         <v>36657.834777832031</v>
       </c>
       <c r="G55" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.6975326538085938</v>
       </c>
       <c r="H55" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>15.683967590332031</v>
       </c>
       <c r="I55" s="39"/>
       <c r="J55" s="40"/>
       <c r="K55" s="41">
-        <f t="shared" ref="K55" si="34">K20/1024/1024</f>
+        <f t="shared" ref="K55" si="35">K20/1024/1024</f>
         <v>34.910041809082031</v>
       </c>
       <c r="L55" s="37">
-        <f t="shared" ref="L55:L57" si="35">L20/1024/1024</f>
+        <f t="shared" ref="L55:L57" si="36">L20/1024/1024</f>
         <v>18314.786651611328</v>
       </c>
       <c r="M55" s="38"/>
       <c r="N55" s="39"/>
       <c r="O55" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36657.835494995117</v>
       </c>
       <c r="P55" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36657.834785461426</v>
       </c>
       <c r="Q55" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.697540283203125</v>
       </c>
       <c r="R55" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.683975219726562</v>
       </c>
       <c r="S55" s="39"/>
       <c r="T55" s="40">
-        <f t="shared" ref="T55:U55" si="36">T20/1024/1024</f>
+        <f t="shared" ref="T55:U55" si="37">T20/1024/1024</f>
         <v>36657.835494995117</v>
       </c>
       <c r="U55" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>34.910049438476562</v>
       </c>
     </row>
@@ -15051,59 +15051,59 @@
         <v>50000</v>
       </c>
       <c r="B56" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28615.499229431152</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
       <c r="E56" s="40">
-        <f t="shared" ref="E56" si="37">E21/1024/1024</f>
+        <f t="shared" ref="E56" si="38">E21/1024/1024</f>
         <v>57266.355995178223</v>
       </c>
       <c r="F56" s="41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>57266.355285644531</v>
       </c>
       <c r="G56" s="37">
-        <f t="shared" ref="G56:H56" si="38">G21/1024/1024</f>
+        <f t="shared" ref="G56:H56" si="39">G21/1024/1024</f>
         <v>5.8419418334960938</v>
       </c>
       <c r="H56" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19.574958801269531</v>
       </c>
       <c r="I56" s="39"/>
       <c r="J56" s="40"/>
       <c r="K56" s="41">
-        <f t="shared" ref="K56" si="39">K21/1024/1024</f>
+        <f t="shared" ref="K56" si="40">K21/1024/1024</f>
         <v>43.607551574707031</v>
       </c>
       <c r="L56" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>28615.499237060547</v>
       </c>
       <c r="M56" s="38"/>
       <c r="N56" s="39"/>
       <c r="O56" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>57266.356002807617</v>
       </c>
       <c r="P56" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>57266.355293273926</v>
       </c>
       <c r="Q56" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.841949462890625</v>
       </c>
       <c r="R56" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.574966430664062</v>
       </c>
       <c r="S56" s="39"/>
       <c r="T56" s="40"/>
       <c r="U56" s="41">
-        <f t="shared" ref="U56:U57" si="40">U21/1024/1024</f>
+        <f t="shared" ref="U56:U57" si="41">U21/1024/1024</f>
         <v>43.607559204101562</v>
       </c>
     </row>
@@ -15112,7 +15112,7 @@
         <v>100000</v>
       </c>
       <c r="B57" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114451.33754730225</v>
       </c>
       <c r="C57" s="38"/>
@@ -15120,21 +15120,21 @@
       <c r="E57" s="49"/>
       <c r="F57" s="43"/>
       <c r="G57" s="37">
-        <f t="shared" ref="G57:H57" si="41">G22/1024/1024</f>
+        <f t="shared" ref="G57:H57" si="42">G22/1024/1024</f>
         <v>11.563987731933594</v>
       </c>
       <c r="H57" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>39.029914855957031</v>
       </c>
       <c r="I57" s="39"/>
       <c r="J57" s="40"/>
       <c r="K57" s="41">
-        <f t="shared" ref="K57" si="42">K22/1024/1024</f>
+        <f t="shared" ref="K57" si="43">K22/1024/1024</f>
         <v>87.095100402832031</v>
       </c>
       <c r="L57" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>114451.33755493164</v>
       </c>
       <c r="M57" s="38"/>
@@ -15142,17 +15142,17 @@
       <c r="O57" s="49"/>
       <c r="P57" s="43"/>
       <c r="Q57" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.563995361328125</v>
       </c>
       <c r="R57" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.029922485351562</v>
       </c>
       <c r="S57" s="39"/>
       <c r="T57" s="40"/>
       <c r="U57" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87.095108032226562</v>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC2DB5A-C10A-694D-8B5A-F138505DB142}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
@@ -17027,9 +17027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E2D8B-7F1A-7E4F-A8B9-14D268A9A495}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3:F15"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17844,7 +17844,7 @@
         <v>0.2369384765625</v>
       </c>
       <c r="E39" s="40">
-        <f t="shared" ref="B39:F50" si="2" xml:space="preserve"> E4/1024/1024</f>
+        <f t="shared" ref="E39:F50" si="2" xml:space="preserve"> E4/1024/1024</f>
         <v>0.22434234619140625</v>
       </c>
       <c r="F39" s="41">
@@ -18407,9 +18407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="118" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F38" sqref="F38:F52"/>
+      <selection pane="topRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19260,43 +19260,43 @@
         <v>10</v>
       </c>
       <c r="B38" s="37">
-        <f>B3/1024/1024</f>
+        <f t="shared" ref="B38:K38" si="0">B3/1024/1024</f>
         <v>0.13074493408203125</v>
       </c>
       <c r="C38" s="38">
-        <f>C3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.87018585205078125</v>
       </c>
       <c r="D38" s="39">
-        <f>D3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.14336395263671875</v>
       </c>
       <c r="E38" s="40">
-        <f>E3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.13971710205078125</v>
       </c>
       <c r="F38" s="41">
-        <f>F3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.13863372802734375</v>
       </c>
       <c r="G38" s="37">
-        <f>G3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.1307525634765625</v>
       </c>
       <c r="H38" s="38">
-        <f>H3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.8701934814453125</v>
       </c>
       <c r="I38" s="39">
-        <f>I3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.14337158203125</v>
       </c>
       <c r="J38" s="40">
-        <f>J3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.1397247314453125</v>
       </c>
       <c r="K38" s="41">
-        <f>K3/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>0.138641357421875</v>
       </c>
       <c r="L38" s="26"/>
@@ -19314,43 +19314,43 @@
         <v>15</v>
       </c>
       <c r="B39" s="37">
-        <f t="shared" ref="B39:F53" si="0">B4/1024/1024</f>
+        <f t="shared" ref="B39:F53" si="1">B4/1024/1024</f>
         <v>0.14211273193359375</v>
       </c>
       <c r="C39" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.120567321777344</v>
       </c>
       <c r="D39" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16335296630859375</v>
       </c>
       <c r="E39" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14910125732421875</v>
       </c>
       <c r="F39" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14801788330078125</v>
       </c>
       <c r="G39" s="37">
-        <f t="shared" ref="G39:J53" si="1">G4/1024/1024</f>
+        <f t="shared" ref="G39:J53" si="2">G4/1024/1024</f>
         <v>0.142120361328125</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.120574951171875</v>
       </c>
       <c r="I39" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.163360595703125</v>
       </c>
       <c r="J39" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14910888671875</v>
       </c>
       <c r="K39" s="41">
-        <f t="shared" ref="K39:K52" si="2">K4/1024/1024</f>
+        <f t="shared" ref="K39:K52" si="3">K4/1024/1024</f>
         <v>0.1480255126953125</v>
       </c>
       <c r="L39" s="26"/>
@@ -19368,43 +19368,43 @@
         <v>20</v>
       </c>
       <c r="B40" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1574859619140625</v>
       </c>
       <c r="C40" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>768.12094879150391</v>
       </c>
       <c r="D40" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18906402587890625</v>
       </c>
       <c r="E40" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15848541259765625</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15740203857421875</v>
       </c>
       <c r="G40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15749359130859375</v>
       </c>
       <c r="H40" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>768.12095642089844</v>
       </c>
       <c r="I40" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1890716552734375</v>
       </c>
       <c r="J40" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1584930419921875</v>
       </c>
       <c r="K40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15740966796875</v>
       </c>
       <c r="L40" s="26"/>
@@ -19422,43 +19422,43 @@
         <v>25</v>
       </c>
       <c r="B41" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1768646240234375</v>
       </c>
       <c r="C41" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24576.12133026123</v>
       </c>
       <c r="D41" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22049713134765625</v>
       </c>
       <c r="E41" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16786956787109375</v>
       </c>
       <c r="F41" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16678619384765625</v>
       </c>
       <c r="G41" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17687225341796875</v>
       </c>
       <c r="H41" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24576.121337890625</v>
       </c>
       <c r="I41" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2205047607421875</v>
       </c>
       <c r="J41" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.167877197265625</v>
       </c>
       <c r="K41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1667938232421875</v>
       </c>
       <c r="L41" s="26"/>
@@ -19476,37 +19476,37 @@
         <v>30</v>
       </c>
       <c r="B42" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20024871826171875</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="39">
-        <f t="shared" ref="D42:F52" si="3">D7/1024/1024</f>
+        <f t="shared" ref="D42:F52" si="4">D7/1024/1024</f>
         <v>0.25765228271484375</v>
       </c>
       <c r="E42" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17725372314453125</v>
       </c>
       <c r="F42" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17617034912109375</v>
       </c>
       <c r="G42" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20025634765625</v>
       </c>
       <c r="H42" s="38"/>
       <c r="I42" s="39">
-        <f t="shared" ref="I42:J52" si="4">I7/1024/1024</f>
+        <f t="shared" ref="I42:J52" si="5">I7/1024/1024</f>
         <v>0.257659912109375</v>
       </c>
       <c r="J42" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1772613525390625</v>
       </c>
       <c r="K42" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.176177978515625</v>
       </c>
       <c r="L42" s="26"/>
@@ -19524,37 +19524,37 @@
         <v>50</v>
       </c>
       <c r="B43" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33383941650390625</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46349334716796875</v>
       </c>
       <c r="E43" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21479034423828125</v>
       </c>
       <c r="F43" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21370697021484375</v>
       </c>
       <c r="G43" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3338470458984375</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4635009765625</v>
       </c>
       <c r="J43" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2147979736328125</v>
       </c>
       <c r="K43" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.213714599609375</v>
       </c>
       <c r="L43" s="26"/>
@@ -19572,37 +19572,37 @@
         <v>100</v>
       </c>
       <c r="B44" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9481964111328125</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3786392211914062</v>
       </c>
       <c r="E44" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30863189697265625</v>
       </c>
       <c r="F44" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30754852294921875</v>
       </c>
       <c r="G44" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94820404052734375</v>
       </c>
       <c r="H44" s="38"/>
       <c r="I44" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3786468505859375</v>
       </c>
       <c r="J44" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3086395263671875</v>
       </c>
       <c r="K44" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30755615234375</v>
       </c>
       <c r="L44" s="26"/>
@@ -19620,37 +19620,37 @@
         <v>200</v>
       </c>
       <c r="B45" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3785400390625</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9255447387695312</v>
       </c>
       <c r="E45" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49631500244140625</v>
       </c>
       <c r="F45" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49523162841796875</v>
       </c>
       <c r="G45" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3785476684570312</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9255523681640625</v>
       </c>
       <c r="J45" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4963226318359375</v>
       </c>
       <c r="K45" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4952392578125</v>
       </c>
       <c r="L45" s="26"/>
@@ -19668,37 +19668,37 @@
         <v>500</v>
       </c>
       <c r="B46" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.282608032226562</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.299171447753906</v>
       </c>
       <c r="E46" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0593643188476562</v>
       </c>
       <c r="F46" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0582809448242188</v>
       </c>
       <c r="G46" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.282615661621094</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.299179077148438</v>
       </c>
       <c r="J46" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0593719482421875</v>
       </c>
       <c r="K46" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.05828857421875</v>
       </c>
       <c r="L46" s="26"/>
@@ -19716,37 +19716,37 @@
         <v>1000</v>
       </c>
       <c r="B47" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.49951171875</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115.69824981689453</v>
       </c>
       <c r="E47" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9977798461914062</v>
       </c>
       <c r="F47" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9966964721679688</v>
       </c>
       <c r="G47" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.499519348144531</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.69825744628906</v>
       </c>
       <c r="J47" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9977874755859375</v>
       </c>
       <c r="K47" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9967041015625</v>
       </c>
       <c r="L47" s="26"/>
@@ -19764,37 +19764,37 @@
         <v>1500</v>
       </c>
       <c r="B48" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.77073669433594</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>259.31778717041016</v>
       </c>
       <c r="E48" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9361953735351562</v>
       </c>
       <c r="F48" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9351119995117188</v>
       </c>
       <c r="G48" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180.77074432373047</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259.31779479980469</v>
       </c>
       <c r="J48" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9362030029296875</v>
       </c>
       <c r="K48" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.93511962890625</v>
       </c>
       <c r="L48" s="26"/>
@@ -19812,37 +19812,37 @@
         <v>2000</v>
       </c>
       <c r="B49" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>321.09628295898438</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>460.15778350830078</v>
       </c>
       <c r="E49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8746109008789062</v>
       </c>
       <c r="F49" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8735275268554688</v>
       </c>
       <c r="G49" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>321.09629058837891</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>460.15779113769531</v>
       </c>
       <c r="J49" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8746185302734375</v>
       </c>
       <c r="K49" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.87353515625</v>
       </c>
       <c r="L49" s="26"/>
@@ -19860,37 +19860,37 @@
         <v>2500</v>
       </c>
       <c r="B50" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>501.47615051269531</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>718.21823883056641</v>
       </c>
       <c r="E50" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8130264282226562</v>
       </c>
       <c r="F50" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8119430541992188</v>
       </c>
       <c r="G50" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.47615814208984</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>718.21824645996094</v>
       </c>
       <c r="J50" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8130340576171875</v>
       </c>
       <c r="K50" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.81195068359375</v>
       </c>
     </row>
@@ -19899,37 +19899,37 @@
         <v>5000</v>
       </c>
       <c r="B51" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2004.1903076171875</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2866.8274002075195</v>
       </c>
       <c r="E51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5051040649414062</v>
       </c>
       <c r="F51" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5040206909179688</v>
       </c>
       <c r="G51" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2004.190315246582</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2866.8274078369141</v>
       </c>
       <c r="J51" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5051116943359375</v>
       </c>
       <c r="K51" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5040283203125</v>
       </c>
     </row>
@@ -19938,37 +19938,37 @@
         <v>10000</v>
       </c>
       <c r="B52" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8013.6927185058594</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11455.580146789551</v>
       </c>
       <c r="E52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.889259338378906</v>
       </c>
       <c r="F52" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.888175964355469</v>
       </c>
       <c r="G52" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8013.6927261352539</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11455.580154418945</v>
       </c>
       <c r="J52" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.889266967773438</v>
       </c>
       <c r="K52" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.88818359375</v>
       </c>
     </row>
@@ -19977,15 +19977,19 @@
         <v>20000</v>
       </c>
       <c r="B53" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32048.993927001953</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
+      <c r="E53" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>4</v>
+      </c>
       <c r="G53" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32048.993934631348</v>
       </c>
       <c r="H53" s="38"/>
